--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H2">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>1.100224207074</v>
+        <v>17.035269848428</v>
       </c>
       <c r="R2">
-        <v>9.902017863666</v>
+        <v>153.317428635852</v>
       </c>
       <c r="S2">
-        <v>8.812272268667769E-06</v>
+        <v>9.64833476147783E-05</v>
       </c>
       <c r="T2">
-        <v>8.81227226866777E-06</v>
+        <v>9.648334761477829E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H3">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>89.97517982583557</v>
+        <v>265.6400512640868</v>
       </c>
       <c r="R3">
-        <v>809.7766184325201</v>
+        <v>2390.76046137678</v>
       </c>
       <c r="S3">
-        <v>0.000720658368494048</v>
+        <v>0.001504516314362082</v>
       </c>
       <c r="T3">
-        <v>0.0007206583684940481</v>
+        <v>0.001504516314362082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H4">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>83.53962747702134</v>
+        <v>314.2998169612564</v>
       </c>
       <c r="R4">
-        <v>751.8566472931921</v>
+        <v>2828.698352651308</v>
       </c>
       <c r="S4">
-        <v>0.0006691126570541607</v>
+        <v>0.001780112599621216</v>
       </c>
       <c r="T4">
-        <v>0.0006691126570541607</v>
+        <v>0.001780112599621216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H5">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>14.46964296906311</v>
+        <v>29.99373639382234</v>
       </c>
       <c r="R5">
-        <v>130.226786721568</v>
+        <v>269.943627544401</v>
       </c>
       <c r="S5">
-        <v>0.0001158949536412283</v>
+        <v>0.0001698767392885316</v>
       </c>
       <c r="T5">
-        <v>0.0001158949536412283</v>
+        <v>0.0001698767392885316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H6">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I6">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J6">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>33.70807615192111</v>
+        <v>101.669615938523</v>
       </c>
       <c r="R6">
-        <v>303.37268536729</v>
+        <v>915.0265434467073</v>
       </c>
       <c r="S6">
-        <v>0.0002699856472833785</v>
+        <v>0.0005758303204902108</v>
       </c>
       <c r="T6">
-        <v>0.0002699856472833786</v>
+        <v>0.0005758303204902108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H7">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I7">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J7">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>79.07493082814935</v>
+        <v>449.5991178612944</v>
       </c>
       <c r="R7">
-        <v>711.6743774533442</v>
+        <v>4046.39206075165</v>
       </c>
       <c r="S7">
-        <v>0.0006333525617809412</v>
+        <v>0.002546412728525806</v>
       </c>
       <c r="T7">
-        <v>0.0006333525617809412</v>
+        <v>0.002546412728525806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>144.959255598021</v>
+        <v>760.2263866909747</v>
       </c>
       <c r="R8">
-        <v>1304.633300382189</v>
+        <v>6842.037480218772</v>
       </c>
       <c r="S8">
-        <v>0.001161054646843673</v>
+        <v>0.004305724968589257</v>
       </c>
       <c r="T8">
-        <v>0.001161054646843674</v>
+        <v>0.004305724968589257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>11854.6156374234</v>
@@ -1013,10 +1013,10 @@
         <v>106691.5407368106</v>
       </c>
       <c r="S9">
-        <v>0.09494982928543694</v>
+        <v>0.06714146659030791</v>
       </c>
       <c r="T9">
-        <v>0.09494982928543695</v>
+        <v>0.0671414665903079</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J10">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>11006.70402827312</v>
+        <v>14026.13614648081</v>
       </c>
       <c r="R10">
-        <v>99060.33625445807</v>
+        <v>126235.2253183273</v>
       </c>
       <c r="S10">
-        <v>0.08815846084293737</v>
+        <v>0.07944039522438179</v>
       </c>
       <c r="T10">
-        <v>0.08815846084293737</v>
+        <v>0.07944039522438179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J11">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>1906.437487994164</v>
+        <v>1338.518852059235</v>
       </c>
       <c r="R11">
-        <v>17157.93739194747</v>
+        <v>12046.66966853311</v>
       </c>
       <c r="S11">
-        <v>0.01526965694754038</v>
+        <v>0.007581023420305989</v>
       </c>
       <c r="T11">
-        <v>0.01526965694754038</v>
+        <v>0.007581023420305988</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>248.636413</v>
       </c>
       <c r="I12">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J12">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>4441.18352896342</v>
+        <v>4537.170555495187</v>
       </c>
       <c r="R12">
-        <v>39970.65176067079</v>
+        <v>40834.53499945668</v>
       </c>
       <c r="S12">
-        <v>0.03557176637335712</v>
+        <v>0.02569735658949806</v>
       </c>
       <c r="T12">
-        <v>0.03557176637335713</v>
+        <v>0.02569735658949806</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>248.636413</v>
       </c>
       <c r="I13">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J13">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>10418.46110603033</v>
+        <v>20064.0856219065</v>
       </c>
       <c r="R13">
-        <v>93766.14995427299</v>
+        <v>180576.7705971584</v>
       </c>
       <c r="S13">
-        <v>0.08344691499838067</v>
+        <v>0.1136377741506524</v>
       </c>
       <c r="T13">
-        <v>0.08344691499838067</v>
+        <v>0.1136377741506524</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H14">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I14">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J14">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>71.746997850996</v>
+        <v>548.1409044412427</v>
       </c>
       <c r="R14">
-        <v>645.722980658964</v>
+        <v>4933.268139971184</v>
       </c>
       <c r="S14">
-        <v>0.0005746593062190035</v>
+        <v>0.003104527835229079</v>
       </c>
       <c r="T14">
-        <v>0.0005746593062190036</v>
+        <v>0.003104527835229079</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H15">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I15">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J15">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>5867.394111219565</v>
+        <v>8547.453562595085</v>
       </c>
       <c r="R15">
-        <v>52806.54700097608</v>
+        <v>76927.08206335577</v>
       </c>
       <c r="S15">
-        <v>0.04699503436045297</v>
+        <v>0.04841055883697305</v>
       </c>
       <c r="T15">
-        <v>0.04699503436045298</v>
+        <v>0.04841055883697305</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H16">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I16">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J16">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>5447.723686253819</v>
+        <v>10113.17034997001</v>
       </c>
       <c r="R16">
-        <v>49029.51317628437</v>
+        <v>91018.53314973005</v>
       </c>
       <c r="S16">
-        <v>0.04363367399033259</v>
+        <v>0.05727837240298642</v>
       </c>
       <c r="T16">
-        <v>0.04363367399033259</v>
+        <v>0.05727837240298642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H17">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I17">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J17">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>943.583531730297</v>
+        <v>965.1032205984769</v>
       </c>
       <c r="R17">
-        <v>8492.251785572673</v>
+        <v>8685.928985386292</v>
       </c>
       <c r="S17">
-        <v>0.007557655009202341</v>
+        <v>0.005466094188448537</v>
       </c>
       <c r="T17">
-        <v>0.007557655009202342</v>
+        <v>0.005466094188448537</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H18">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I18">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J18">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>2198.145843077629</v>
+        <v>3271.405485829649</v>
       </c>
       <c r="R18">
-        <v>19783.31258769866</v>
+        <v>29442.64937246685</v>
       </c>
       <c r="S18">
-        <v>0.01760610203892512</v>
+        <v>0.01852839171240491</v>
       </c>
       <c r="T18">
-        <v>0.01760610203892512</v>
+        <v>0.01852839171240492</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H19">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I19">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J19">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>5156.575228682732</v>
+        <v>14466.67233881337</v>
       </c>
       <c r="R19">
-        <v>46409.17705814458</v>
+        <v>130200.0510493203</v>
       </c>
       <c r="S19">
-        <v>0.04130171341154983</v>
+        <v>0.08193547789462402</v>
       </c>
       <c r="T19">
-        <v>0.04130171341154983</v>
+        <v>0.08193547789462403</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H20">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I20">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J20">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>0.6915671861789999</v>
+        <v>3.389217255441333</v>
       </c>
       <c r="R20">
-        <v>6.224104675611</v>
+        <v>30.502955298972</v>
       </c>
       <c r="S20">
-        <v>5.539124023541781E-06</v>
+        <v>1.919564700226492E-05</v>
       </c>
       <c r="T20">
-        <v>5.539124023541783E-06</v>
+        <v>1.919564700226492E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H21">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I21">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J21">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>56.55563796726889</v>
+        <v>52.8498728515089</v>
       </c>
       <c r="R21">
-        <v>509.00074170542</v>
+        <v>475.64885566358</v>
       </c>
       <c r="S21">
-        <v>0.0004529837435782368</v>
+        <v>0.0002993279648105785</v>
       </c>
       <c r="T21">
-        <v>0.0004529837435782369</v>
+        <v>0.0002993279648105785</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H22">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I22">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J22">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>52.51044717728133</v>
+        <v>62.53087696908078</v>
       </c>
       <c r="R22">
-        <v>472.594024595532</v>
+        <v>562.7778927217271</v>
       </c>
       <c r="S22">
-        <v>0.0004205836905791484</v>
+        <v>0.000354158659824311</v>
       </c>
       <c r="T22">
-        <v>0.0004205836905791484</v>
+        <v>0.000354158659824311</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H23">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I23">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J23">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>9.095173700769777</v>
+        <v>5.967342451606778</v>
       </c>
       <c r="R23">
-        <v>81.856563306928</v>
+        <v>53.706082064461</v>
       </c>
       <c r="S23">
-        <v>7.28480126747649E-05</v>
+        <v>3.379747906652207E-05</v>
       </c>
       <c r="T23">
-        <v>7.284801267476492E-05</v>
+        <v>3.379747906652207E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H24">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I24">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J24">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>21.18786264291278</v>
+        <v>20.22747040456967</v>
       </c>
       <c r="R24">
-        <v>190.690763786215</v>
+        <v>182.047233641127</v>
       </c>
       <c r="S24">
-        <v>0.0001697046958247156</v>
+        <v>0.0001145631431598266</v>
       </c>
       <c r="T24">
-        <v>0.0001697046958247156</v>
+        <v>0.0001145631431598266</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H25">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I25">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J25">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>49.70407582246934</v>
+        <v>89.44907253273212</v>
       </c>
       <c r="R25">
-        <v>447.336682402224</v>
+        <v>805.041652794589</v>
       </c>
       <c r="S25">
-        <v>0.000398105991664158</v>
+        <v>0.0005066163339814372</v>
       </c>
       <c r="T25">
-        <v>0.000398105991664158</v>
+        <v>0.0005066163339814372</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H26">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I26">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J26">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>183.796520860002</v>
+        <v>1172.888405175067</v>
       </c>
       <c r="R26">
-        <v>1654.168687740018</v>
+        <v>10555.9956465756</v>
       </c>
       <c r="S26">
-        <v>0.001472122657762315</v>
+        <v>0.006642935551754207</v>
       </c>
       <c r="T26">
-        <v>0.001472122657762315</v>
+        <v>0.006642935551754207</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H27">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I27">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J27">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>15030.686390478</v>
+        <v>18289.47465170378</v>
       </c>
       <c r="R27">
-        <v>135276.177514302</v>
+        <v>164605.271865334</v>
       </c>
       <c r="S27">
-        <v>0.1203886444292191</v>
+        <v>0.1035868381430336</v>
       </c>
       <c r="T27">
-        <v>0.1203886444292191</v>
+        <v>0.1035868381430336</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H28">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I28">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J28">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>13955.60358106576</v>
+        <v>21639.72830148746</v>
       </c>
       <c r="R28">
-        <v>125600.4322295918</v>
+        <v>194757.5547133871</v>
       </c>
       <c r="S28">
-        <v>0.1117777427902701</v>
+        <v>0.1225618053942619</v>
       </c>
       <c r="T28">
-        <v>0.11177774279027</v>
+        <v>0.1225618053942619</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H29">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I29">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J29">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>2417.207346194407</v>
+        <v>2065.086491567256</v>
       </c>
       <c r="R29">
-        <v>21754.86611574966</v>
+        <v>18585.7784241053</v>
       </c>
       <c r="S29">
-        <v>0.01936068042089197</v>
+        <v>0.01169611397960055</v>
       </c>
       <c r="T29">
-        <v>0.01936068042089197</v>
+        <v>0.01169611397960054</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H30">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I30">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J30">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>5631.05872582424</v>
+        <v>7000.013193445234</v>
       </c>
       <c r="R30">
-        <v>50679.52853241817</v>
+        <v>63000.11874100711</v>
       </c>
       <c r="S30">
-        <v>0.04510210040259828</v>
+        <v>0.03964625816089051</v>
       </c>
       <c r="T30">
-        <v>0.04510210040259827</v>
+        <v>0.03964625816089051</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H31">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I31">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J31">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>13209.7595017573</v>
+        <v>30955.16519599552</v>
       </c>
       <c r="R31">
-        <v>118887.8355158157</v>
+        <v>278596.4867639597</v>
       </c>
       <c r="S31">
-        <v>0.1058038866847773</v>
+        <v>0.1753220225245641</v>
       </c>
       <c r="T31">
-        <v>0.1058038866847773</v>
+        <v>0.1753220225245641</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H32">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I32">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J32">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>52.754121838002</v>
+        <v>51.09630046319067</v>
       </c>
       <c r="R32">
-        <v>474.787096542018</v>
+        <v>459.8667041687161</v>
       </c>
       <c r="S32">
-        <v>0.0004225354086393757</v>
+        <v>0.0002893961858710511</v>
       </c>
       <c r="T32">
-        <v>0.0004225354086393758</v>
+        <v>0.0002893961858710511</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H33">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I33">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J33">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>4314.176663637996</v>
+        <v>796.7718736019713</v>
       </c>
       <c r="R33">
-        <v>38827.58997274197</v>
+        <v>7170.946862417742</v>
       </c>
       <c r="S33">
-        <v>0.03455450182851114</v>
+        <v>0.004512709122568502</v>
       </c>
       <c r="T33">
-        <v>0.03455450182851114</v>
+        <v>0.004512709122568502</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H34">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I34">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J34">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>4005.601456401757</v>
+        <v>942.7240088280814</v>
       </c>
       <c r="R34">
-        <v>36050.41310761582</v>
+        <v>8484.516079452733</v>
       </c>
       <c r="S34">
-        <v>0.03208296127882805</v>
+        <v>0.005339344140589034</v>
       </c>
       <c r="T34">
-        <v>0.03208296127882805</v>
+        <v>0.005339344140589035</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H35">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I35">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J35">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>693.7979579384071</v>
+        <v>89.96446668755924</v>
       </c>
       <c r="R35">
-        <v>6244.181621445664</v>
+        <v>809.6802001880332</v>
       </c>
       <c r="S35">
-        <v>0.005556991443642845</v>
+        <v>0.0005095353927249299</v>
       </c>
       <c r="T35">
-        <v>0.005556991443642846</v>
+        <v>0.0005095353927249299</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H36">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I36">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J36">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>1616.252346394241</v>
+        <v>304.9520958689924</v>
       </c>
       <c r="R36">
-        <v>14546.27111754817</v>
+        <v>2744.568862820932</v>
       </c>
       <c r="S36">
-        <v>0.01294541207121543</v>
+        <v>0.001727169533172866</v>
       </c>
       <c r="T36">
-        <v>0.01294541207121543</v>
+        <v>0.001727169533172866</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H37">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I37">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J37">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>3791.525862109302</v>
+        <v>1348.546387502402</v>
       </c>
       <c r="R37">
-        <v>34123.73275898372</v>
+        <v>12136.91748752162</v>
       </c>
       <c r="S37">
-        <v>0.03036831765359913</v>
+        <v>0.007637816778819878</v>
       </c>
       <c r="T37">
-        <v>0.03036831765359913</v>
+        <v>0.00763781677881988</v>
       </c>
     </row>
   </sheetData>
